--- a/error variances.xlsx
+++ b/error variances.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Currant\UBC_HD_study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krl0022\Documents\GitHub\power_reliability\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t>var(T)</t>
   </si>
@@ -96,6 +96,33 @@
   </si>
   <si>
     <t>dz=</t>
+  </si>
+  <si>
+    <t>Plug these into a power calculator for within-between interactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*The effect here is dz rather than d. </t>
+  </si>
+  <si>
+    <t>*dz = mean(difference)/sd(difference)</t>
+  </si>
+  <si>
+    <t>d = (mean1 - mean2)/ pooled SD</t>
+  </si>
+  <si>
+    <t>*Not these effect-sizes are given as dz</t>
+  </si>
+  <si>
+    <t>Plug these into a power calculator for between-subjects t-tests</t>
+  </si>
+  <si>
+    <t>Plug these into a power calculator for within-subjects t-tests</t>
+  </si>
+  <si>
+    <t>*However, for the interaction in a 2x2 design, you enter the dz effect-size for a between subjects t-test</t>
+  </si>
+  <si>
+    <t>*Because the within-between interaction is the same as a t-test of the difference scores.</t>
   </si>
 </sst>
 </file>
@@ -103,7 +130,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -122,12 +149,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -142,10 +187,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +479,7 @@
   <dimension ref="B1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,346 +707,404 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D13" t="b">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="2">
         <v>0.2</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2">
         <f>B14/1</f>
         <v>0.2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f>B14/SQRT($F$7)</f>
         <v>0.18</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <f>B14/SQRT($F$6)</f>
         <v>0.16</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <f>B14/SQRT($F$5)</f>
         <v>0.13999999999999999</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="3">
         <f>B14/SQRT($F$4)</f>
         <v>0.12</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <f>B14/SQRT($F$3)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15">
+      <c r="B15" s="2">
         <v>0.5</v>
       </c>
-      <c r="D15">
+      <c r="C15" s="2"/>
+      <c r="D15" s="2">
         <f>B15/1</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f>B15/SQRT($F$7)</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <f>B15/SQRT($F$6)</f>
         <v>0.4</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <f>B15/SQRT($F$5)</f>
         <v>0.34999999999999992</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="3">
         <f>B15/SQRT($F$4)</f>
         <v>0.3</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <f>B15/SQRT($F$3)</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16">
+      <c r="B16" s="2">
         <v>0.8</v>
       </c>
-      <c r="D16">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2">
         <f>B16/1</f>
         <v>0.8</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f>B16/SQRT($F$7)</f>
         <v>0.72</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <f>B16/SQRT($F$6)</f>
         <v>0.64</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="3">
         <f>B16/SQRT($F$5)</f>
         <v>0.55999999999999994</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="3">
         <f>B16/SQRT($F$4)</f>
         <v>0.48</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <f>B16/SQRT($F$3)</f>
         <v>0.4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="b">
+      <c r="D20" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="J20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
         <v>0.2</v>
       </c>
-      <c r="D21" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="5">
         <f t="shared" ref="E21:E22" si="6">B21/$J$7</f>
         <v>0.29199855803537261</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="5">
         <f t="shared" ref="F21:F22" si="7">B21/$J$6</f>
         <v>0.1885618083164127</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="5">
         <f t="shared" ref="G21:G22" si="8">B21/$J$5</f>
         <v>0.13862065601673437</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <f t="shared" ref="H21:H22" si="9">B21/$J$4</f>
         <v>0.10606601717798214</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <f t="shared" ref="I21:I22" si="10">B21/$J$3</f>
         <v>8.1649658092772609E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="J21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
         <v>0.5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="5">
         <f t="shared" si="6"/>
         <v>0.7299963950884315</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="5">
         <f t="shared" si="7"/>
         <v>0.47140452079103173</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="5">
         <f t="shared" si="8"/>
         <v>0.34655164004183592</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <f t="shared" si="9"/>
         <v>0.2651650429449553</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <f t="shared" si="10"/>
         <v>0.20412414523193154</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="4">
         <v>0.8</v>
       </c>
-      <c r="D23" t="s">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="5">
         <f>B23/$J$7</f>
         <v>1.1679942321414905</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="5">
         <f>B23/$J$6</f>
         <v>0.7542472332656508</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="5">
         <f>B23/$J$5</f>
         <v>0.55448262406693749</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <f>B23/$J$4</f>
         <v>0.42426406871192857</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <f>B23/$J$3</f>
         <v>0.32659863237109044</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D27" t="b">
+      <c r="D27" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="J27" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
         <v>0.2</v>
       </c>
-      <c r="D28" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="7">
         <f t="shared" ref="E28:E29" si="11">B28/$J$7</f>
         <v>0.29199855803537261</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="7">
         <f t="shared" ref="F28:F29" si="12">B28/$J$6</f>
         <v>0.1885618083164127</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="7">
         <f t="shared" ref="G28:G29" si="13">B28/$J$5</f>
         <v>0.13862065601673437</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="7">
         <f t="shared" ref="H28:H29" si="14">B28/$J$4</f>
         <v>0.10606601717798214</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="7">
         <f t="shared" ref="I28:I29" si="15">B28/$J$3</f>
         <v>8.1649658092772609E-2</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="J28" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
         <v>0.5</v>
       </c>
-      <c r="D29" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="7">
         <f t="shared" si="11"/>
         <v>0.7299963950884315</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="7">
         <f t="shared" si="12"/>
         <v>0.47140452079103173</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="7">
         <f t="shared" si="13"/>
         <v>0.34655164004183592</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="7">
         <f t="shared" si="14"/>
         <v>0.2651650429449553</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="7">
         <f t="shared" si="15"/>
         <v>0.20412414523193154</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30">
+      <c r="J29" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
         <v>0.8</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="7">
         <f>B30/$J$7</f>
         <v>1.1679942321414905</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="7">
         <f>B30/$J$6</f>
         <v>0.7542472332656508</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="7">
         <f>B30/$J$5</f>
         <v>0.55448262406693749</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="7">
         <f>B30/$J$4</f>
         <v>0.42426406871192857</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="7">
         <f>B30/$J$3</f>
         <v>0.32659863237109044</v>
       </c>
